--- a/biology/Botanique/Geranium_nodosum/Geranium_nodosum.xlsx
+++ b/biology/Botanique/Geranium_nodosum/Geranium_nodosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium nodosum
 Le Géranium noueux ou géranium à tige noueuse (Geranium nodosum), en anglais Knotted Crane's-bill, est une plante de la famille des Géraniacées.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, aux tiges de 20 à 50 cm de hauteur très renflées aux nœuds. Les feuilles, polygonales sont crénelées dentées.
-Les fleurs sont de couleur rose à violet avec des pétales échancrés en cœur[1].
+Les fleurs sont de couleur rose à violet avec des pétales échancrés en cœur.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : rose à violet
@@ -583,7 +599,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-bois herbacés des montagnes d'Espagne, de Suisse, Italie, Dalmatie, Monténégro et de France.
 En France elle se retrouve dans le Massif-Central, les Cévennes, les Corbières, les Pyrénées, les Alpes et en Corse.
